--- a/kerdes-template-minta.xlsx
+++ b/kerdes-template-minta.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="questions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Kérdések" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,8 +29,12 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00006600"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -43,8 +47,14 @@
         <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E6FFE6"/>
+        <bgColor rgb="00E6FFE6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -52,15 +62,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -135,6 +154,26 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>OTIS System</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0">
+      <text>
+        <t>ÚJ! true_false típus: Igaz=X, Hamis=-</t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <t>ÚJ! true_false típus: Igaz=X, Hamis=-</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,20 +473,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="13" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="13" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="18" customWidth="1" min="10" max="10"/>
     <col width="18" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -458,52 +496,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>title_hu</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>title_de</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>placeholder</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cell_reference</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>calculation_formula</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>calculation_inputs</t>
-        </is>
-      </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>min_value</t>
+          <t>sheet_name</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>max_value</t>
+          <t>group_name</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>group_name</t>
+          <t>group_name_de</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -513,420 +551,488 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>required</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>placeholder</t>
+          <t>multi_cell</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Átvevő neve</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Name des Abnehmers</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Átvevő neve</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Name des Prüfer</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr"/>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>F9</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
         <is>
           <t>Általános adatok</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Teljes név</t>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>Allgemeine Daten</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Szerelő neve</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Name des Monteurs</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Szerelő neve</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Name des Monteur</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>text</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Q9</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
         <is>
           <t>Általános adatok</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Szerelő neve</t>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>Allgemeine Daten</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Irányítószám</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Irányítószám</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Postleitzahl</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>number</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>G13</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>9999</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>Általános adatok</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>pl. 1051</t>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>Allgemeine Daten</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Gépház típus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Maschinenraumtyp</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>yes_no_na</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>A68,B68,C68</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Gépház</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>Igen/Nem/NA</t>
+      <c r="A5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Város</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Város</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Stadt</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>O13</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>Általános adatok</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Allgemeine Daten</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Kabin módosítva</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kabine modifiziert</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>true_false</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Q25</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Modernizáció</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Igaz/Hamis</t>
+      <c r="A6" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>X kérdés</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Kérdés X</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>X Frage</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>yes_no_na</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>A68,B68,C68</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Gépház</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Maschinenraum</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>m1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Kabintető távolság</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Abstand Kabinendach</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>measurement</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>I278</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>3000</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Mérési adatok</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Mérés mm-ben</t>
+      <c r="A7" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Többsoros kérdés</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Kérdés sok</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Frage viel</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>yes_no_na</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>A75;A76;A77,B75;B76;B77,C75;C76;C77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Gépház</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Maschinenraum</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>m4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Effektív távolság A</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Effektiver Abstand A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>calculated</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>I283</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>mm</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>m1 - m3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>m1,m3</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>9000</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Mérési adatok</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>true</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Auto számolt</t>
+      <c r="A8" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Igaz/Hamis teszt</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Igaz/Hamis teszt</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Wahr/Falsch Test</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>true_false</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr"/>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>F20</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t>Teszt Csoport</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>Test Gruppe</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Másik igaz/hamis</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Másik igaz/hamis</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Anderer Wahr/Falsch</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>true_false</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr"/>
+      <c r="H9" s="3" t="inlineStr">
+        <is>
+          <t>G25</t>
+        </is>
+      </c>
+      <c r="I9" s="3" t="inlineStr">
+        <is>
+          <t>Munka1</t>
+        </is>
+      </c>
+      <c r="J9" s="3" t="inlineStr">
+        <is>
+          <t>Teszt Csoport</t>
+        </is>
+      </c>
+      <c r="K9" s="3" t="inlineStr">
+        <is>
+          <t>Test Gruppe</t>
+        </is>
+      </c>
+      <c r="L9" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>FALSE</t>
         </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>